--- a/Estimated effect of adding treatments.xlsx
+++ b/Estimated effect of adding treatments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="20" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,23 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>No intervention</t>
   </si>
   <si>
-    <t>Bed deployment at Nov 23</t>
-  </si>
-  <si>
-    <t>Bed deployment at Dec 7</t>
-  </si>
-  <si>
-    <t>Half bed deployment at Nov 23</t>
-  </si>
-  <si>
-    <t>Half bed deployment at Dec 7</t>
-  </si>
-  <si>
     <t>Cum Cases at Week of Jan 4</t>
   </si>
   <si>
@@ -49,6 +37,33 @@
   </si>
   <si>
     <t>Guinea</t>
+  </si>
+  <si>
+    <t>Cum Cases at Nov 16</t>
+  </si>
+  <si>
+    <t>Bed deployed at Nov 23</t>
+  </si>
+  <si>
+    <t>Half bed deployed at Nov 23</t>
+  </si>
+  <si>
+    <t>Bed deployed at Dec 7</t>
+  </si>
+  <si>
+    <t>Half bed deployed at Dec 7</t>
+  </si>
+  <si>
+    <t>Intervention</t>
+  </si>
+  <si>
+    <t>Number of beds needed at Nov 23</t>
+  </si>
+  <si>
+    <t>Number of beds needed at Dec 7</t>
+  </si>
+  <si>
+    <t>Number of beds in place as of Nov 18</t>
   </si>
 </sst>
 </file>
@@ -57,9 +72,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,24 +109,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -119,8 +132,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -129,23 +151,147 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="66">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -475,137 +621,308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="45">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="60">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="2">
+        <v>20659</v>
+      </c>
+      <c r="C2" s="2">
+        <v>14785</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5874</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1170</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1598</v>
+      </c>
+      <c r="G2" s="2">
+        <v>356</v>
+      </c>
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8551</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2677</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5874</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1170</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1598</v>
+      </c>
+      <c r="G3" s="2">
+        <v>356</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10978</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5104</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5874</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1170</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1598</v>
+      </c>
+      <c r="G4" s="2">
+        <v>356</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>11679</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5805</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5874</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1170</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1598</v>
+      </c>
+      <c r="G5" s="2">
+        <v>356</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>14337</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8463</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5874</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1170</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1598</v>
+      </c>
+      <c r="G6" s="2">
+        <v>356</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3949</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2050</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1899</v>
+      </c>
+      <c r="E7" s="2">
+        <v>239</v>
+      </c>
+      <c r="F7" s="2">
+        <v>287</v>
+      </c>
+      <c r="G7" s="2">
+        <v>160</v>
+      </c>
+      <c r="H7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
-        <v>20659</v>
-      </c>
-      <c r="C2" s="3">
-        <v>8551</v>
-      </c>
-      <c r="D2" s="3">
-        <v>10978</v>
-      </c>
-      <c r="E2" s="3">
-        <v>11679</v>
-      </c>
-      <c r="F2" s="3">
-        <v>14337</v>
-      </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="B8" s="2">
+        <v>2929</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1030</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1899</v>
+      </c>
+      <c r="E8" s="2">
+        <v>239</v>
+      </c>
+      <c r="F8" s="2">
+        <v>287</v>
+      </c>
+      <c r="G8" s="2">
+        <v>160</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3">
-        <v>14785</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2677</v>
-      </c>
-      <c r="D3" s="3">
-        <v>5104</v>
-      </c>
-      <c r="E3" s="3">
-        <v>5805</v>
-      </c>
-      <c r="F3" s="3">
-        <v>8463</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="B9" s="2">
+        <v>3364</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1465</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1899</v>
+      </c>
+      <c r="E9" s="2">
+        <v>239</v>
+      </c>
+      <c r="F9" s="2">
+        <v>287</v>
+      </c>
+      <c r="G9" s="2">
+        <v>160</v>
+      </c>
+      <c r="H9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
-        <v>3949</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2929</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3364</v>
-      </c>
-      <c r="E4" s="3">
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
         <v>3479</v>
       </c>
-      <c r="F4" s="3">
+      <c r="C10" s="2">
+        <v>1580</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1899</v>
+      </c>
+      <c r="E10" s="2">
+        <v>239</v>
+      </c>
+      <c r="F10" s="2">
+        <v>287</v>
+      </c>
+      <c r="G10" s="2">
+        <v>160</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
         <v>3730</v>
       </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2050</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1030</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1465</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1580</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="C11" s="2">
         <v>1831</v>
       </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="D11" s="2">
+        <v>1899</v>
+      </c>
+      <c r="E11" s="2">
+        <v>239</v>
+      </c>
+      <c r="F11" s="2">
+        <v>287</v>
+      </c>
+      <c r="G11" s="2">
+        <v>160</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H11">
+    <sortCondition descending="1" ref="H1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/Estimated effect of adding treatments.xlsx
+++ b/Estimated effect of adding treatments.xlsx
@@ -4,11 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="8420" yWindow="3120" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="guinea" localSheetId="1">Sheet2!$A$1:$K$15</definedName>
+    <definedName name="Sierra_Leone" localSheetId="1">Sheet2!$N$15:$Y$23</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -18,8 +23,49 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="guinea" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:xuhong:Documents:Duke:Term 1 Courses:EGRMGMT 590 Data Mining:Projects:guinea" space="1" consecutive="1">
+      <textFields count="12">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="Sierra Leone" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:xuhong:Documents:Duke:Term 1 Courses:EGRMGMT 590 Data Mining:Projects:Sierra Leone" space="1" consecutive="1">
+      <textFields count="12">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>No intervention</t>
   </si>
@@ -64,6 +110,45 @@
   </si>
   <si>
     <t>Number of beds in place as of Nov 18</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>New_Cases</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>sc1</t>
+  </si>
+  <si>
+    <t>sc1.c</t>
+  </si>
+  <si>
+    <t>sc2</t>
+  </si>
+  <si>
+    <t>sc2.c</t>
+  </si>
+  <si>
+    <t>sc3</t>
+  </si>
+  <si>
+    <t>sc3.c</t>
+  </si>
+  <si>
+    <t>sc4</t>
+  </si>
+  <si>
+    <t>sc4.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -142,9 +227,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="66">
+  <cellStyleXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -226,7 +329,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="66">
+  <cellStyles count="84">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -260,6 +363,15 @@
     <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -292,11 +404,28 @@
     <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Sierra Leone" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="guinea" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -623,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -931,4 +1060,959 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
+    <col min="16" max="16" width="3.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.1640625" customWidth="1"/>
+    <col min="21" max="21" width="10.1640625" customWidth="1"/>
+    <col min="22" max="22" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="10.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <v>199.55459999999999</v>
+      </c>
+      <c r="C2">
+        <v>2278.5949999999998</v>
+      </c>
+      <c r="D2">
+        <v>199.55456788000001</v>
+      </c>
+      <c r="E2">
+        <v>2278.5949999999998</v>
+      </c>
+      <c r="F2">
+        <v>199.55457000000001</v>
+      </c>
+      <c r="G2">
+        <v>2278.5949999999998</v>
+      </c>
+      <c r="H2">
+        <v>199.5545679</v>
+      </c>
+      <c r="I2">
+        <v>2278.5949999999998</v>
+      </c>
+      <c r="J2">
+        <v>199.55457000000001</v>
+      </c>
+      <c r="K2">
+        <v>2278.5949999999998</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <v>218.70859999999999</v>
+      </c>
+      <c r="C3">
+        <v>2497.3040000000001</v>
+      </c>
+      <c r="D3">
+        <v>218.70860832</v>
+      </c>
+      <c r="E3">
+        <v>2497.3040000000001</v>
+      </c>
+      <c r="F3">
+        <v>218.70860999999999</v>
+      </c>
+      <c r="G3">
+        <v>2497.3040000000001</v>
+      </c>
+      <c r="H3">
+        <v>218.70860830000001</v>
+      </c>
+      <c r="I3">
+        <v>2497.3040000000001</v>
+      </c>
+      <c r="J3">
+        <v>218.70860999999999</v>
+      </c>
+      <c r="K3">
+        <v>2497.3040000000001</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>239.7011</v>
+      </c>
+      <c r="C4">
+        <v>2737.0050000000001</v>
+      </c>
+      <c r="D4">
+        <v>239.70112967</v>
+      </c>
+      <c r="E4">
+        <v>2737.0050000000001</v>
+      </c>
+      <c r="F4">
+        <v>239.70113000000001</v>
+      </c>
+      <c r="G4">
+        <v>2737.0050000000001</v>
+      </c>
+      <c r="H4">
+        <v>239.7011297</v>
+      </c>
+      <c r="I4">
+        <v>2737.0050000000001</v>
+      </c>
+      <c r="J4">
+        <v>239.70113000000001</v>
+      </c>
+      <c r="K4">
+        <v>2737.0050000000001</v>
+      </c>
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>262.70859999999999</v>
+      </c>
+      <c r="C5">
+        <v>2999.7130000000002</v>
+      </c>
+      <c r="D5">
+        <v>109.43314645</v>
+      </c>
+      <c r="E5">
+        <v>2846.4380000000001</v>
+      </c>
+      <c r="F5">
+        <v>200.38213999999999</v>
+      </c>
+      <c r="G5">
+        <v>2937.3870000000002</v>
+      </c>
+      <c r="H5">
+        <v>262.70859660000002</v>
+      </c>
+      <c r="I5">
+        <v>2999.7130000000002</v>
+      </c>
+      <c r="J5">
+        <v>262.70859999999999</v>
+      </c>
+      <c r="K5">
+        <v>2999.7130000000002</v>
+      </c>
+      <c r="L5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>287.92439999999999</v>
+      </c>
+      <c r="C6">
+        <v>3287.6379999999999</v>
+      </c>
+      <c r="D6">
+        <v>50.107169630000001</v>
+      </c>
+      <c r="E6">
+        <v>2896.5450000000001</v>
+      </c>
+      <c r="F6">
+        <v>168.00418999999999</v>
+      </c>
+      <c r="G6">
+        <v>3105.3910000000001</v>
+      </c>
+      <c r="H6">
+        <v>287.92441170000001</v>
+      </c>
+      <c r="I6">
+        <v>3287.6379999999999</v>
+      </c>
+      <c r="J6">
+        <v>287.92441000000002</v>
+      </c>
+      <c r="K6">
+        <v>3287.6379999999999</v>
+      </c>
+      <c r="L6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>315.56049999999999</v>
+      </c>
+      <c r="C7">
+        <v>3603.1979999999999</v>
+      </c>
+      <c r="D7">
+        <v>22.943034440000002</v>
+      </c>
+      <c r="E7">
+        <v>2919.4879999999998</v>
+      </c>
+      <c r="F7">
+        <v>140.8579</v>
+      </c>
+      <c r="G7">
+        <v>3246.2489999999998</v>
+      </c>
+      <c r="H7">
+        <v>131.41135159999999</v>
+      </c>
+      <c r="I7">
+        <v>3419.049</v>
+      </c>
+      <c r="J7">
+        <v>240.62625</v>
+      </c>
+      <c r="K7">
+        <v>3528.2640000000001</v>
+      </c>
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>53</v>
+      </c>
+      <c r="B8">
+        <v>345.84930000000003</v>
+      </c>
+      <c r="C8">
+        <v>3949.0479999999998</v>
+      </c>
+      <c r="D8">
+        <v>10.50513995</v>
+      </c>
+      <c r="E8">
+        <v>2929.9929999999999</v>
+      </c>
+      <c r="F8">
+        <v>118.09793999999999</v>
+      </c>
+      <c r="G8">
+        <v>3364.3470000000002</v>
+      </c>
+      <c r="H8">
+        <v>60.170534199999999</v>
+      </c>
+      <c r="I8">
+        <v>3479.22</v>
+      </c>
+      <c r="J8">
+        <v>201.74562</v>
+      </c>
+      <c r="K8">
+        <v>3730.01</v>
+      </c>
+      <c r="L8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>54</v>
+      </c>
+      <c r="B9">
+        <v>379.0453</v>
+      </c>
+      <c r="C9">
+        <v>4328.0929999999998</v>
+      </c>
+      <c r="D9">
+        <v>4.8100858500000001</v>
+      </c>
+      <c r="E9">
+        <v>2934.8029999999999</v>
+      </c>
+      <c r="F9">
+        <v>99.015559999999994</v>
+      </c>
+      <c r="G9">
+        <v>3463.3629999999998</v>
+      </c>
+      <c r="H9">
+        <v>27.5508405</v>
+      </c>
+      <c r="I9">
+        <v>3506.7710000000002</v>
+      </c>
+      <c r="J9">
+        <v>169.14735999999999</v>
+      </c>
+      <c r="K9">
+        <v>3899.1570000000002</v>
+      </c>
+      <c r="L9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>55</v>
+      </c>
+      <c r="B10">
+        <v>415.42759999999998</v>
+      </c>
+      <c r="C10">
+        <v>4743.5200000000004</v>
+      </c>
+      <c r="D10">
+        <v>2.2024386200000001</v>
+      </c>
+      <c r="E10">
+        <v>2937.0059999999999</v>
+      </c>
+      <c r="F10">
+        <v>83.01652</v>
+      </c>
+      <c r="G10">
+        <v>3546.3789999999999</v>
+      </c>
+      <c r="H10">
+        <v>12.6149589</v>
+      </c>
+      <c r="I10">
+        <v>3519.3850000000002</v>
+      </c>
+      <c r="J10">
+        <v>141.81635</v>
+      </c>
+      <c r="K10">
+        <v>4040.973</v>
+      </c>
+      <c r="L10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>56</v>
+      </c>
+      <c r="B11">
+        <v>455.30189999999999</v>
+      </c>
+      <c r="C11">
+        <v>5198.8220000000001</v>
+      </c>
+      <c r="D11">
+        <v>1.00845099</v>
+      </c>
+      <c r="E11">
+        <v>2938.0140000000001</v>
+      </c>
+      <c r="F11">
+        <v>69.602630000000005</v>
+      </c>
+      <c r="G11">
+        <v>3615.982</v>
+      </c>
+      <c r="H11">
+        <v>5.7761281999999996</v>
+      </c>
+      <c r="I11">
+        <v>3525.1619999999998</v>
+      </c>
+      <c r="J11">
+        <v>118.90152</v>
+      </c>
+      <c r="K11">
+        <v>4159.875</v>
+      </c>
+      <c r="L11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>57</v>
+      </c>
+      <c r="B12">
+        <v>499.00360000000001</v>
+      </c>
+      <c r="C12">
+        <v>5697.826</v>
+      </c>
+      <c r="D12">
+        <v>0.46174881000000001</v>
+      </c>
+      <c r="E12">
+        <v>2938.4760000000001</v>
+      </c>
+      <c r="F12">
+        <v>58.356169999999999</v>
+      </c>
+      <c r="G12">
+        <v>3674.3380000000002</v>
+      </c>
+      <c r="H12">
+        <v>2.6447693999999999</v>
+      </c>
+      <c r="I12">
+        <v>3527.806</v>
+      </c>
+      <c r="J12">
+        <v>99.689300000000003</v>
+      </c>
+      <c r="K12">
+        <v>4259.5640000000003</v>
+      </c>
+      <c r="L12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>58</v>
+      </c>
+      <c r="B13">
+        <v>546.9</v>
+      </c>
+      <c r="C13">
+        <v>6244.7259999999997</v>
+      </c>
+      <c r="D13">
+        <v>0.21142521</v>
+      </c>
+      <c r="E13">
+        <v>2938.6869999999999</v>
+      </c>
+      <c r="F13">
+        <v>48.926920000000003</v>
+      </c>
+      <c r="G13">
+        <v>3723.2649999999999</v>
+      </c>
+      <c r="H13">
+        <v>1.2109851</v>
+      </c>
+      <c r="I13">
+        <v>3529.0169999999998</v>
+      </c>
+      <c r="J13">
+        <v>83.581400000000002</v>
+      </c>
+      <c r="K13">
+        <v>4343.1459999999997</v>
+      </c>
+      <c r="L13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>59</v>
+      </c>
+      <c r="B14">
+        <v>599.39359999999999</v>
+      </c>
+      <c r="C14">
+        <v>6844.12</v>
+      </c>
+      <c r="D14">
+        <v>9.6807219999999999E-2</v>
+      </c>
+      <c r="E14">
+        <v>2938.7840000000001</v>
+      </c>
+      <c r="F14">
+        <v>41.021259999999998</v>
+      </c>
+      <c r="G14">
+        <v>3764.2860000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.55448500000000001</v>
+      </c>
+      <c r="I14">
+        <v>3529.5720000000001</v>
+      </c>
+      <c r="J14">
+        <v>70.076229999999995</v>
+      </c>
+      <c r="K14">
+        <v>4413.2219999999998</v>
+      </c>
+      <c r="L14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>60</v>
+      </c>
+      <c r="B15">
+        <v>656.92579999999998</v>
+      </c>
+      <c r="C15">
+        <v>7501.0450000000001</v>
+      </c>
+      <c r="D15">
+        <v>4.4326020000000001E-2</v>
+      </c>
+      <c r="E15">
+        <v>2938.8290000000002</v>
+      </c>
+      <c r="F15">
+        <v>34.393000000000001</v>
+      </c>
+      <c r="G15">
+        <v>3798.6790000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.25388719999999998</v>
+      </c>
+      <c r="I15">
+        <v>3529.826</v>
+      </c>
+      <c r="J15">
+        <v>58.753239999999998</v>
+      </c>
+      <c r="K15">
+        <v>4471.9750000000004</v>
+      </c>
+      <c r="L15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>8100.625</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>8100.625</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16">
+        <v>8100.625</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16">
+        <v>8100.625</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16">
+        <v>8100.625</v>
+      </c>
+      <c r="L16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>9468.5820000000003</v>
+      </c>
+      <c r="D17">
+        <v>325.47630148000002</v>
+      </c>
+      <c r="E17">
+        <v>8426.1010000000006</v>
+      </c>
+      <c r="F17">
+        <v>876.63829999999996</v>
+      </c>
+      <c r="G17">
+        <v>8977.2630000000008</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17">
+        <v>9468.5820000000003</v>
+      </c>
+      <c r="J17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17">
+        <v>9468.5820000000003</v>
+      </c>
+      <c r="L17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>11067.546</v>
+      </c>
+      <c r="D18">
+        <v>90.542583609999994</v>
+      </c>
+      <c r="E18">
+        <v>8516.6440000000002</v>
+      </c>
+      <c r="F18">
+        <v>656.83309999999994</v>
+      </c>
+      <c r="G18">
+        <v>9634.0959999999995</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18">
+        <v>11067.546</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18">
+        <v>11067.546</v>
+      </c>
+      <c r="L18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>12936.528</v>
+      </c>
+      <c r="D19">
+        <v>25.187577130000001</v>
+      </c>
+      <c r="E19">
+        <v>8541.8310000000001</v>
+      </c>
+      <c r="F19">
+        <v>492.14100000000002</v>
+      </c>
+      <c r="G19">
+        <v>10126.236999999999</v>
+      </c>
+      <c r="H19">
+        <v>444.53942699999999</v>
+      </c>
+      <c r="I19">
+        <v>11512.084999999999</v>
+      </c>
+      <c r="J19">
+        <v>1197.3231000000001</v>
+      </c>
+      <c r="K19">
+        <v>12264.869000000001</v>
+      </c>
+      <c r="L19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>15121.126</v>
+      </c>
+      <c r="D20">
+        <v>7.00680295</v>
+      </c>
+      <c r="E20">
+        <v>8548.8379999999997</v>
+      </c>
+      <c r="F20">
+        <v>368.74329999999998</v>
+      </c>
+      <c r="G20">
+        <v>10494.981</v>
+      </c>
+      <c r="H20">
+        <v>123.66414399999999</v>
+      </c>
+      <c r="I20">
+        <v>11635.749</v>
+      </c>
+      <c r="J20">
+        <v>897.11040000000003</v>
+      </c>
+      <c r="K20">
+        <v>13161.978999999999</v>
+      </c>
+      <c r="L20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>17674.638999999999</v>
+      </c>
+      <c r="D21">
+        <v>1.9491865900000001</v>
+      </c>
+      <c r="E21">
+        <v>8550.7870000000003</v>
+      </c>
+      <c r="F21">
+        <v>276.28590000000003</v>
+      </c>
+      <c r="G21">
+        <v>10771.266</v>
+      </c>
+      <c r="H21">
+        <v>34.401494</v>
+      </c>
+      <c r="I21">
+        <v>11670.151</v>
+      </c>
+      <c r="J21">
+        <v>672.1721</v>
+      </c>
+      <c r="K21">
+        <v>13834.152</v>
+      </c>
+      <c r="L21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>20659.364000000001</v>
+      </c>
+      <c r="D22">
+        <v>0.54223421999999999</v>
+      </c>
+      <c r="E22">
+        <v>8551.33</v>
+      </c>
+      <c r="F22">
+        <v>207.01089999999999</v>
+      </c>
+      <c r="G22">
+        <v>10978.277</v>
+      </c>
+      <c r="H22">
+        <v>9.5699749999999995</v>
+      </c>
+      <c r="I22">
+        <v>11679.721</v>
+      </c>
+      <c r="J22">
+        <v>503.63400000000001</v>
+      </c>
+      <c r="K22">
+        <v>14337.786</v>
+      </c>
+      <c r="L22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>24148.121999999999</v>
+      </c>
+      <c r="D23">
+        <v>0.15084136000000001</v>
+      </c>
+      <c r="E23">
+        <v>8551.48</v>
+      </c>
+      <c r="F23">
+        <v>155.10570000000001</v>
+      </c>
+      <c r="G23">
+        <v>11133.383</v>
+      </c>
+      <c r="H23">
+        <v>2.6622219999999999</v>
+      </c>
+      <c r="I23">
+        <v>11682.383</v>
+      </c>
+      <c r="J23">
+        <v>377.3546</v>
+      </c>
+      <c r="K23">
+        <v>14715.14</v>
+      </c>
+      <c r="L23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>28226.027999999998</v>
+      </c>
+      <c r="D24">
+        <v>4.1961779999999997E-2</v>
+      </c>
+      <c r="E24">
+        <v>8551.5220000000008</v>
+      </c>
+      <c r="F24">
+        <v>116.21510000000001</v>
+      </c>
+      <c r="G24">
+        <v>11249.598</v>
+      </c>
+      <c r="H24">
+        <v>0.74058999999999997</v>
+      </c>
+      <c r="I24">
+        <v>11683.124</v>
+      </c>
+      <c r="J24">
+        <v>282.738</v>
+      </c>
+      <c r="K24">
+        <v>14997.878000000001</v>
+      </c>
+      <c r="L24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>